--- a/output/tabela_busca_completa_lista_encadeada.xlsx
+++ b/output/tabela_busca_completa_lista_encadeada.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -529,7 +529,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Existente</t>
+          <t>Inexistente</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Existente</t>
+          <t>Inexistente</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Existente</t>
+          <t>Inexistente</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Existente</t>
+          <t>Inexistente</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Existente</t>
+          <t>Inexistente</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Existente</t>
+          <t>Inexistente</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Existente</t>
+          <t>Inexistente</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Existente</t>
+          <t>Inexistente</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Existente</t>
+          <t>Inexistente</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Existente</t>
+          <t>Inexistente</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Existente</t>
+          <t>Inexistente</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Existente</t>
+          <t>Inexistente</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Existente</t>
+          <t>Inexistente</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Existente</t>
+          <t>Inexistente</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Existente</t>
+          <t>Inexistente</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Existente</t>
+          <t>Inexistente</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Existente</t>
+          <t>Inexistente</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Existente</t>
+          <t>Inexistente</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Existente</t>
+          <t>Inexistente</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Existente</t>
+          <t>Inexistente</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
